--- a/PCB Design/EE445L Lab 6 BOM.xlsx
+++ b/PCB Design/EE445L Lab 6 BOM.xlsx
@@ -277,7 +277,7 @@
     <t>QFP50P1200X1200X160-64N</t>
   </si>
   <si>
-    <t>2 mA</t>
+    <t>40 mA</t>
   </si>
   <si>
     <t>U2</t>
@@ -313,7 +313,7 @@
     <t>16MHZ_CRYSTAL</t>
   </si>
   <si>
-    <t>13.265 mA</t>
+    <t>51.265 mA</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
